--- a/Chapter 3/Tables_D1-7.xlsx
+++ b/Chapter 3/Tables_D1-7.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matti\Documents\GitHub\PhD-thesis\Chapter 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hazen_metagenome\results\publication files\Supplementary_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532926B6-50C3-4F4A-B390-B2C8261DF06C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FDF75-E62C-4B20-BBE7-014228F1AECC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="1452" windowWidth="23040" windowHeight="12312" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17620" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table D1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table D2" sheetId="4" r:id="rId2"/>
-    <sheet name="Table D3" sheetId="5" r:id="rId3"/>
-    <sheet name="Table D4" sheetId="6" r:id="rId4"/>
-    <sheet name="Table D5" sheetId="7" r:id="rId5"/>
-    <sheet name="Table D6" sheetId="8" r:id="rId6"/>
-    <sheet name="Table D7" sheetId="9" r:id="rId7"/>
+    <sheet name="Table S1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2" sheetId="4" r:id="rId2"/>
+    <sheet name="Table S3" sheetId="5" r:id="rId3"/>
+    <sheet name="Table S4" sheetId="6" r:id="rId4"/>
+    <sheet name="Table S5" sheetId="7" r:id="rId5"/>
+    <sheet name="Table S6" sheetId="8" r:id="rId6"/>
+    <sheet name="Table S7" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -17612,9 +17612,21 @@
     <t>Parachlamydiales</t>
   </si>
   <si>
+    <t>Table S1. Analyzed marker genes for ecologically relevant processes.</t>
+  </si>
+  <si>
+    <t>Table S2. MetaCyc pathways considered for parsimonious pathway analysis.</t>
+  </si>
+  <si>
+    <t>Table S3. Ribosomal proteins used for the estimations of phylogeny of the genomes.</t>
+  </si>
+  <si>
     <t>Sum of means</t>
   </si>
   <si>
+    <t>Table S6. Summary of taxonomy and abundance of MAGs with at least a single marker gene or pathway for ecologically important processes.</t>
+  </si>
+  <si>
     <t>Polyphosphate_processing</t>
   </si>
   <si>
@@ -17630,28 +17642,16 @@
     <t>Number of contigs</t>
   </si>
   <si>
-    <t>Table D7. Phylum-level summary of MAGs with at least a single marker gene or pathway for ecologically important processes.</t>
-  </si>
-  <si>
-    <t>Table D6. Summary of taxonomy and abundance of MAGs with at least a single marker gene or pathway for ecologically important processes.</t>
-  </si>
-  <si>
-    <t>Table D5. Summary of marker genes and MetaCyc pathways quantified for ecologically important processes found in the MAGs.</t>
-  </si>
-  <si>
-    <t>Table D4. Summary statistics of the 55 medium quality Metagenome Assembled Genomes.</t>
-  </si>
-  <si>
-    <t>Table D3. Ribosomal proteins used for the estimations of phylogeny of the genomes.</t>
-  </si>
-  <si>
-    <t>Table D2. MetaCyc pathways considered for parsimonious pathway analysis.</t>
-  </si>
-  <si>
-    <t>Table D1. Analyzed marker genes for ecologically relevant processes.</t>
-  </si>
-  <si>
-    <t>Sulfur_oxidation</t>
+    <t>Table S5. Summary of marker genes and MetaCyc pathways quantified for ecologically important processes found in the MAGs.</t>
+  </si>
+  <si>
+    <t>Table S4. Summary statistics of the 55 medium quality Metagenome Assembled Genomes.</t>
+  </si>
+  <si>
+    <t>Table S7. Phylum-level summary of MAGs with at least a single marker gene or pathway for ecologically important processes.</t>
+  </si>
+  <si>
+    <t>Thiosulfate_oxidation</t>
   </si>
 </sst>
 </file>
@@ -18003,22 +18003,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="A1:D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="11.5546875"/>
+    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5867</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19128,18 +19128,18 @@
   <dimension ref="A1:B2740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N2737" sqref="N2737"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5866</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -41067,14 +41067,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5865</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -41239,27 +41239,27 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.36328125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5864</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -41282,10 +41282,10 @@
         <v>5756</v>
       </c>
       <c r="G2" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="H2" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="I2" t="s">
         <v>5757</v>
@@ -41297,7 +41297,7 @@
         <v>5759</v>
       </c>
       <c r="L2" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -43442,20 +43442,20 @@
   <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C31" sqref="C31:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5863</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -44026,7 +44026,7 @@
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D42" t="s">
         <v>94</v>
@@ -44040,7 +44040,7 @@
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D43" t="s">
         <v>94</v>
@@ -44054,7 +44054,7 @@
         <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D44" t="s">
         <v>94</v>
@@ -46758,25 +46758,25 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5862</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -47651,7 +47651,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B32" t="s">
         <v>5802</v>
@@ -47680,7 +47680,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B33" t="s">
         <v>5802</v>
@@ -47709,7 +47709,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B34" t="s">
         <v>5802</v>
@@ -47738,7 +47738,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B35" t="s">
         <v>5802</v>
@@ -47767,7 +47767,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B36" t="s">
         <v>5802</v>
@@ -50008,19 +50008,19 @@
   <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5861</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -50031,7 +50031,7 @@
         <v>5796</v>
       </c>
       <c r="C2" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -50245,7 +50245,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B22" t="s">
         <v>5812</v>
@@ -50256,7 +50256,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B23" t="s">
         <v>5823</v>
@@ -50267,7 +50267,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="B24" t="s">
         <v>5804</v>
